--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_tyc\Documents\Development\TheOtherRoles MR\AmongUsMR - v2.5.0-\Among Us MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D1C6FB-B5F3-4659-9B6F-1494D870F0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A5AF04-71C3-4132-9D58-BC56945671F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3353,9 +3353,6 @@
   </si>
   <si>
     <t>ドアをすり抜けて痕跡を消そう</t>
-  </si>
-  <si>
-    <t>カタオモイ対象と一つになろう</t>
   </si>
   <si>
     <t>マッドメイトキラーを作成しよう</t>
@@ -4103,12 +4100,19 @@
     </r>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>カタオモイ相手と一つになろう</t>
+    <rPh sb="5" eb="7">
+      <t>アイテ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4144,6 +4148,13 @@
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -4211,7 +4222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4232,6 +4243,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4550,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A768" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D782" sqref="D782"/>
+    <sheetView tabSelected="1" topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D305" sqref="D305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5220,10 +5234,10 @@
         <v>28</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>1331</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>1332</v>
       </c>
       <c r="E42" s="1"/>
     </row>
@@ -7134,7 +7148,7 @@
         <v>349</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E171" s="1"/>
     </row>
@@ -7239,7 +7253,7 @@
         <v>767</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E178" s="1"/>
     </row>
@@ -7254,7 +7268,7 @@
         <v>767</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E179" s="1"/>
     </row>
@@ -7284,7 +7298,7 @@
         <v>768</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E181" s="1"/>
     </row>
@@ -7299,7 +7313,7 @@
         <v>767</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E182" s="1"/>
     </row>
@@ -7689,7 +7703,7 @@
         <v>784</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E208" s="1"/>
     </row>
@@ -7704,7 +7718,7 @@
         <v>785</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E209" s="1"/>
     </row>
@@ -7824,7 +7838,7 @@
         <v>790</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E217" s="1"/>
     </row>
@@ -7839,7 +7853,7 @@
         <v>791</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E218" s="1"/>
     </row>
@@ -7914,7 +7928,7 @@
         <v>794</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E223" s="1"/>
     </row>
@@ -7929,7 +7943,7 @@
         <v>795</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E224" s="1"/>
     </row>
@@ -8139,7 +8153,7 @@
         <v>803</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E238" s="1"/>
     </row>
@@ -8184,7 +8198,7 @@
         <v>805</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E241" s="1"/>
     </row>
@@ -8199,7 +8213,7 @@
         <v>806</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E242" s="1"/>
     </row>
@@ -8214,7 +8228,7 @@
         <v>141</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E243" s="1"/>
     </row>
@@ -8544,7 +8558,7 @@
         <v>815</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E265" s="1"/>
     </row>
@@ -8559,7 +8573,7 @@
         <v>816</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E266" s="1"/>
     </row>
@@ -8619,7 +8633,7 @@
         <v>148</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E270" s="1"/>
     </row>
@@ -8664,7 +8678,7 @@
         <v>353</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E273" s="1"/>
     </row>
@@ -8679,7 +8693,7 @@
         <v>820</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E274" s="1"/>
     </row>
@@ -8694,7 +8708,7 @@
         <v>820</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E275" s="1"/>
     </row>
@@ -8709,7 +8723,7 @@
         <v>150</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E276" s="1"/>
     </row>
@@ -8724,7 +8738,7 @@
         <v>821</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E277" s="1"/>
     </row>
@@ -8739,7 +8753,7 @@
         <v>821</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E278" s="1"/>
     </row>
@@ -8754,7 +8768,7 @@
         <v>153</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E279" s="1"/>
     </row>
@@ -8859,7 +8873,7 @@
         <v>824</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E286" s="1"/>
     </row>
@@ -8874,7 +8888,7 @@
         <v>825</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E287" s="1"/>
     </row>
@@ -9128,8 +9142,8 @@
       <c r="C304" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="D304" s="3" t="s">
-        <v>1104</v>
+      <c r="D304" s="11" t="s">
+        <v>1334</v>
       </c>
       <c r="E304" s="1"/>
     </row>
@@ -9143,8 +9157,8 @@
       <c r="C305" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="D305" s="3" t="s">
-        <v>1104</v>
+      <c r="D305" s="11" t="s">
+        <v>1334</v>
       </c>
       <c r="E305" s="1"/>
     </row>
@@ -9174,7 +9188,7 @@
         <v>832</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E307" s="1"/>
     </row>
@@ -9189,7 +9203,7 @@
         <v>832</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E308" s="1"/>
     </row>
@@ -9219,7 +9233,7 @@
         <v>833</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E310" s="1"/>
     </row>
@@ -9234,7 +9248,7 @@
         <v>833</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E311" s="1"/>
     </row>
@@ -9264,7 +9278,7 @@
         <v>834</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E313" s="1"/>
     </row>
@@ -9279,7 +9293,7 @@
         <v>834</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E314" s="1"/>
     </row>
@@ -9309,7 +9323,7 @@
         <v>835</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E316" s="1"/>
     </row>
@@ -9324,7 +9338,7 @@
         <v>836</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E317" s="1"/>
     </row>
@@ -9354,7 +9368,7 @@
         <v>837</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E319" s="1"/>
     </row>
@@ -9369,7 +9383,7 @@
         <v>837</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E320" s="1"/>
     </row>
@@ -9399,7 +9413,7 @@
         <v>838</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E322" s="1"/>
     </row>
@@ -9414,7 +9428,7 @@
         <v>838</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E323" s="1"/>
     </row>
@@ -9444,7 +9458,7 @@
         <v>839</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E325" s="1"/>
     </row>
@@ -9459,7 +9473,7 @@
         <v>839</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E326" s="1"/>
     </row>
@@ -9489,7 +9503,7 @@
         <v>840</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E328" s="1"/>
     </row>
@@ -9504,7 +9518,7 @@
         <v>840</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E329" s="1"/>
     </row>
@@ -9534,7 +9548,7 @@
         <v>841</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E331" s="1"/>
     </row>
@@ -9549,7 +9563,7 @@
         <v>842</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E332" s="1"/>
     </row>
@@ -9579,7 +9593,7 @@
         <v>843</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E334" s="1"/>
     </row>
@@ -9594,7 +9608,7 @@
         <v>844</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E335" s="1"/>
     </row>
@@ -9624,7 +9638,7 @@
         <v>845</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E337" s="1"/>
     </row>
@@ -9639,7 +9653,7 @@
         <v>846</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E338" s="1"/>
     </row>
@@ -9669,7 +9683,7 @@
         <v>847</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E340" s="1"/>
     </row>
@@ -9684,7 +9698,7 @@
         <v>848</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E341" s="1"/>
     </row>
@@ -9714,7 +9728,7 @@
         <v>849</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E343" s="1"/>
     </row>
@@ -9729,7 +9743,7 @@
         <v>849</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E344" s="1"/>
     </row>
@@ -9759,7 +9773,7 @@
         <v>850</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E346" s="1"/>
     </row>
@@ -9774,7 +9788,7 @@
         <v>850</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E347" s="1"/>
     </row>
@@ -9804,7 +9818,7 @@
         <v>851</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E349" s="1"/>
     </row>
@@ -9819,7 +9833,7 @@
         <v>851</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E350" s="1"/>
     </row>
@@ -9849,7 +9863,7 @@
         <v>852</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E352" s="1"/>
     </row>
@@ -9864,7 +9878,7 @@
         <v>852</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E353" s="1"/>
     </row>
@@ -9879,7 +9893,7 @@
         <v>853</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E354" s="1"/>
     </row>
@@ -9894,7 +9908,7 @@
         <v>854</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E355" s="1"/>
     </row>
@@ -9909,7 +9923,7 @@
         <v>855</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E356" s="1"/>
     </row>
@@ -9924,7 +9938,7 @@
         <v>856</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E357" s="1"/>
     </row>
@@ -9939,7 +9953,7 @@
         <v>857</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E358" s="1"/>
     </row>
@@ -9954,7 +9968,7 @@
         <v>857</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E359" s="1"/>
     </row>
@@ -10117,7 +10131,7 @@
         <v>408</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E372" s="1"/>
     </row>
@@ -10132,7 +10146,7 @@
         <v>409</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E373" s="1"/>
     </row>
@@ -10147,7 +10161,7 @@
         <v>410</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E374" s="1"/>
     </row>
@@ -10162,7 +10176,7 @@
         <v>411</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E375" s="1"/>
     </row>
@@ -10177,7 +10191,7 @@
         <v>412</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E376" s="1"/>
     </row>
@@ -10192,7 +10206,7 @@
         <v>413</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E377" s="1"/>
     </row>
@@ -10207,7 +10221,7 @@
         <v>414</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E378" s="1"/>
     </row>
@@ -10222,7 +10236,7 @@
         <v>415</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E379" s="1"/>
     </row>
@@ -10274,7 +10288,7 @@
         <v>205</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E383" s="1"/>
     </row>
@@ -10311,7 +10325,7 @@
         <v>422</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E386" s="1"/>
     </row>
@@ -10326,7 +10340,7 @@
         <v>423</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E387" s="1"/>
     </row>
@@ -10341,7 +10355,7 @@
         <v>424</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E388" s="1"/>
     </row>
@@ -10356,7 +10370,7 @@
         <v>425</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E389" s="1"/>
     </row>
@@ -10408,7 +10422,7 @@
         <v>41</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E393" s="1"/>
     </row>
@@ -10430,7 +10444,7 @@
         <v>432</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E395" s="1"/>
     </row>
@@ -10445,7 +10459,7 @@
         <v>48</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E396" s="1"/>
     </row>
@@ -10482,7 +10496,7 @@
         <v>51</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E399" s="1"/>
     </row>
@@ -10519,7 +10533,7 @@
         <v>12</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E402" s="1"/>
     </row>
@@ -10549,7 +10563,7 @@
         <v>15</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E404" s="1"/>
     </row>
@@ -10564,7 +10578,7 @@
         <v>16</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E405" s="1"/>
     </row>
@@ -10579,7 +10593,7 @@
         <v>17</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E406" s="1"/>
     </row>
@@ -10594,7 +10608,7 @@
         <v>18</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E407" s="1"/>
     </row>
@@ -10616,7 +10630,7 @@
         <v>440</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E409" s="1"/>
     </row>
@@ -10631,7 +10645,7 @@
         <v>441</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E410" s="1"/>
     </row>
@@ -10646,7 +10660,7 @@
         <v>442</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E411" s="1"/>
     </row>
@@ -10668,7 +10682,7 @@
         <v>444</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E413" s="1"/>
     </row>
@@ -10683,7 +10697,7 @@
         <v>445</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E414" s="1"/>
     </row>
@@ -10705,7 +10719,7 @@
         <v>447</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E416" s="1"/>
     </row>
@@ -10720,7 +10734,7 @@
         <v>448</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E417" s="1"/>
     </row>
@@ -10735,7 +10749,7 @@
         <v>449</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E418" s="1"/>
     </row>
@@ -10757,7 +10771,7 @@
         <v>451</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E420" s="1"/>
     </row>
@@ -10779,7 +10793,7 @@
         <v>453</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E422" s="1"/>
     </row>
@@ -10794,7 +10808,7 @@
         <v>454</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E423" s="1"/>
     </row>
@@ -10816,7 +10830,7 @@
         <v>64</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E425" s="1"/>
     </row>
@@ -10831,7 +10845,7 @@
         <v>65</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E426" s="1"/>
     </row>
@@ -10846,7 +10860,7 @@
         <v>66</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E427" s="1"/>
     </row>
@@ -10861,7 +10875,7 @@
         <v>67</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E428" s="1"/>
     </row>
@@ -10876,7 +10890,7 @@
         <v>456</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E429" s="1"/>
     </row>
@@ -10898,7 +10912,7 @@
         <v>458</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E431" s="1"/>
     </row>
@@ -10913,7 +10927,7 @@
         <v>459</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E432" s="1"/>
     </row>
@@ -10928,7 +10942,7 @@
         <v>460</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E433" s="1"/>
     </row>
@@ -10943,7 +10957,7 @@
         <v>461</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E434" s="1"/>
     </row>
@@ -10958,7 +10972,7 @@
         <v>154</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E435" s="1"/>
     </row>
@@ -10973,7 +10987,7 @@
         <v>155</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E436" s="1"/>
     </row>
@@ -11010,7 +11024,7 @@
         <v>465</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E439" s="1"/>
     </row>
@@ -11077,7 +11091,7 @@
         <v>472</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E444" s="1"/>
     </row>
@@ -11092,7 +11106,7 @@
         <v>473</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E445" s="1"/>
     </row>
@@ -11107,7 +11121,7 @@
         <v>474</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E446" s="1"/>
     </row>
@@ -11122,7 +11136,7 @@
         <v>75</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E447" s="1"/>
     </row>
@@ -11137,7 +11151,7 @@
         <v>76</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E448" s="1"/>
     </row>
@@ -11152,7 +11166,7 @@
         <v>77</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E449" s="1"/>
     </row>
@@ -11167,7 +11181,7 @@
         <v>475</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E450" s="1"/>
     </row>
@@ -11189,7 +11203,7 @@
         <v>477</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E452" s="1"/>
     </row>
@@ -11204,7 +11218,7 @@
         <v>479</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E453" s="1"/>
     </row>
@@ -11226,7 +11240,7 @@
         <v>481</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E455" s="1"/>
     </row>
@@ -11241,7 +11255,7 @@
         <v>482</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E456" s="1"/>
     </row>
@@ -11263,7 +11277,7 @@
         <v>484</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E458" s="1"/>
     </row>
@@ -11278,7 +11292,7 @@
         <v>485</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E459" s="1"/>
     </row>
@@ -11308,7 +11322,7 @@
         <v>487</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E461" s="1"/>
     </row>
@@ -11323,7 +11337,7 @@
         <v>86</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E462" s="1"/>
     </row>
@@ -11338,7 +11352,7 @@
         <v>87</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E463" s="1"/>
     </row>
@@ -11353,7 +11367,7 @@
         <v>88</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E464" s="1"/>
     </row>
@@ -11368,7 +11382,7 @@
         <v>89</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E465" s="1"/>
     </row>
@@ -11383,7 +11397,7 @@
         <v>488</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E466" s="1"/>
     </row>
@@ -11398,7 +11412,7 @@
         <v>489</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E467" s="1"/>
     </row>
@@ -11420,7 +11434,7 @@
         <v>491</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E469" s="1"/>
     </row>
@@ -11435,7 +11449,7 @@
         <v>492</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E470" s="1"/>
     </row>
@@ -11465,7 +11479,7 @@
         <v>495</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E472" s="1"/>
     </row>
@@ -11487,7 +11501,7 @@
         <v>497</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E474" s="1"/>
     </row>
@@ -11517,7 +11531,7 @@
         <v>499</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E476" s="1"/>
     </row>
@@ -11547,7 +11561,7 @@
         <v>501</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E478" s="1"/>
     </row>
@@ -11562,7 +11576,7 @@
         <v>151</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E479" s="1"/>
     </row>
@@ -11577,7 +11591,7 @@
         <v>152</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E480" s="1"/>
     </row>
@@ -11666,7 +11680,7 @@
         <v>96</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E487" s="1"/>
     </row>
@@ -11681,7 +11695,7 @@
         <v>97</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E488" s="1"/>
     </row>
@@ -11696,7 +11710,7 @@
         <v>98</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E489" s="1"/>
     </row>
@@ -11718,7 +11732,7 @@
         <v>513</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E491" s="1"/>
     </row>
@@ -11733,7 +11747,7 @@
         <v>514</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E492" s="1"/>
     </row>
@@ -11748,7 +11762,7 @@
         <v>515</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E493" s="1"/>
     </row>
@@ -11763,7 +11777,7 @@
         <v>516</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E494" s="1"/>
     </row>
@@ -11778,7 +11792,7 @@
         <v>517</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="E495" s="1"/>
     </row>
@@ -11793,7 +11807,7 @@
         <v>518</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="E496" s="1"/>
     </row>
@@ -11808,7 +11822,7 @@
         <v>519</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E497" s="1"/>
     </row>
@@ -11823,7 +11837,7 @@
         <v>520</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E498" s="1"/>
     </row>
@@ -11838,7 +11852,7 @@
         <v>521</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E499" s="1"/>
     </row>
@@ -11853,7 +11867,7 @@
         <v>522</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E500" s="1"/>
     </row>
@@ -11883,7 +11897,7 @@
         <v>858</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E502" s="1"/>
     </row>
@@ -11920,7 +11934,7 @@
         <v>524</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E505" s="1"/>
     </row>
@@ -11935,7 +11949,7 @@
         <v>525</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E506" s="1"/>
     </row>
@@ -11950,7 +11964,7 @@
         <v>526</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E507" s="1"/>
     </row>
@@ -11965,7 +11979,7 @@
         <v>527</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E508" s="1"/>
     </row>
@@ -11987,7 +12001,7 @@
         <v>106</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E510" s="1"/>
     </row>
@@ -12002,7 +12016,7 @@
         <v>529</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E511" s="1"/>
     </row>
@@ -12017,7 +12031,7 @@
         <v>107</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E512" s="1"/>
     </row>
@@ -12032,7 +12046,7 @@
         <v>108</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E513" s="1"/>
     </row>
@@ -12047,7 +12061,7 @@
         <v>109</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E514" s="1"/>
     </row>
@@ -12069,7 +12083,7 @@
         <v>531</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E516" s="1"/>
     </row>
@@ -12084,7 +12098,7 @@
         <v>115</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E517" s="1"/>
     </row>
@@ -12099,7 +12113,7 @@
         <v>532</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E518" s="1"/>
     </row>
@@ -12121,7 +12135,7 @@
         <v>534</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E520" s="1"/>
     </row>
@@ -12136,7 +12150,7 @@
         <v>118</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E521" s="1"/>
     </row>
@@ -12151,7 +12165,7 @@
         <v>535</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E522" s="1"/>
     </row>
@@ -12166,7 +12180,7 @@
         <v>119</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E523" s="1"/>
     </row>
@@ -12196,7 +12210,7 @@
         <v>863</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E525" s="1"/>
     </row>
@@ -12226,7 +12240,7 @@
         <v>865</v>
       </c>
       <c r="D527" s="10" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="E527" s="1"/>
     </row>
@@ -12256,7 +12270,7 @@
         <v>867</v>
       </c>
       <c r="D529" s="10" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E529" s="1"/>
     </row>
@@ -12278,7 +12292,7 @@
         <v>537</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E531" s="1"/>
     </row>
@@ -12293,7 +12307,7 @@
         <v>538</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E532" s="1"/>
     </row>
@@ -12308,7 +12322,7 @@
         <v>539</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E533" s="1"/>
     </row>
@@ -12323,7 +12337,7 @@
         <v>127</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E534" s="1"/>
     </row>
@@ -12345,7 +12359,7 @@
         <v>541</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E536" s="1"/>
     </row>
@@ -12360,7 +12374,7 @@
         <v>542</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E537" s="1"/>
     </row>
@@ -12375,7 +12389,7 @@
         <v>543</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E538" s="1"/>
     </row>
@@ -12390,7 +12404,7 @@
         <v>868</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E539" s="1"/>
     </row>
@@ -12405,7 +12419,7 @@
         <v>869</v>
       </c>
       <c r="D540" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E540" s="1"/>
     </row>
@@ -12420,7 +12434,7 @@
         <v>870</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E541" s="1"/>
     </row>
@@ -12442,7 +12456,7 @@
         <v>545</v>
       </c>
       <c r="D543" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E543" s="1"/>
     </row>
@@ -12457,7 +12471,7 @@
         <v>546</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E544" s="1"/>
     </row>
@@ -12472,7 +12486,7 @@
         <v>547</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E545" s="1"/>
     </row>
@@ -12487,7 +12501,7 @@
         <v>126</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E546" s="1"/>
     </row>
@@ -12502,7 +12516,7 @@
         <v>127</v>
       </c>
       <c r="D547" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E547" s="1"/>
     </row>
@@ -12517,7 +12531,7 @@
         <v>548</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E548" s="1"/>
     </row>
@@ -12554,7 +12568,7 @@
         <v>551</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E551" s="1"/>
     </row>
@@ -12584,7 +12598,7 @@
         <v>131</v>
       </c>
       <c r="D553" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E553" s="1"/>
     </row>
@@ -12599,7 +12613,7 @@
         <v>132</v>
       </c>
       <c r="D554" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E554" s="1"/>
     </row>
@@ -12621,7 +12635,7 @@
         <v>135</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E556" s="1"/>
     </row>
@@ -12636,7 +12650,7 @@
         <v>136</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E557" s="1"/>
     </row>
@@ -12651,7 +12665,7 @@
         <v>137</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="E558" s="1"/>
     </row>
@@ -12673,7 +12687,7 @@
         <v>554</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E560" s="1"/>
     </row>
@@ -12688,7 +12702,7 @@
         <v>140</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E561" s="1"/>
     </row>
@@ -12718,7 +12732,7 @@
         <v>556</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E563" s="1"/>
     </row>
@@ -12740,7 +12754,7 @@
         <v>558</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E565" s="1"/>
     </row>
@@ -12755,7 +12769,7 @@
         <v>559</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E566" s="1"/>
     </row>
@@ -12770,7 +12784,7 @@
         <v>560</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E567" s="1"/>
     </row>
@@ -12785,7 +12799,7 @@
         <v>561</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="E568" s="1"/>
     </row>
@@ -12807,7 +12821,7 @@
         <v>563</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E570" s="1"/>
     </row>
@@ -12822,7 +12836,7 @@
         <v>564</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E571" s="1"/>
     </row>
@@ -12837,7 +12851,7 @@
         <v>565</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E572" s="1"/>
     </row>
@@ -12852,7 +12866,7 @@
         <v>566</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E573" s="1"/>
     </row>
@@ -12867,7 +12881,7 @@
         <v>567</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E574" s="1"/>
     </row>
@@ -12882,7 +12896,7 @@
         <v>568</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E575" s="1"/>
     </row>
@@ -12897,7 +12911,7 @@
         <v>127</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E576" s="1"/>
     </row>
@@ -12912,7 +12926,7 @@
         <v>569</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E577" s="1"/>
     </row>
@@ -12934,7 +12948,7 @@
         <v>571</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E579" s="1"/>
     </row>
@@ -12949,7 +12963,7 @@
         <v>572</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E580" s="1"/>
     </row>
@@ -12964,7 +12978,7 @@
         <v>147</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E581" s="1"/>
     </row>
@@ -12986,7 +13000,7 @@
         <v>574</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E583" s="1"/>
     </row>
@@ -13001,7 +13015,7 @@
         <v>575</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E584" s="1"/>
     </row>
@@ -13016,7 +13030,7 @@
         <v>576</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E585" s="1"/>
     </row>
@@ -13053,7 +13067,7 @@
         <v>579</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="E588" s="1"/>
     </row>
@@ -13068,7 +13082,7 @@
         <v>580</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E589" s="1"/>
     </row>
@@ -13083,7 +13097,7 @@
         <v>127</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E590" s="1"/>
     </row>
@@ -13098,7 +13112,7 @@
         <v>581</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E591" s="1"/>
     </row>
@@ -13113,7 +13127,7 @@
         <v>582</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E592" s="1"/>
     </row>
@@ -13128,7 +13142,7 @@
         <v>583</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E593" s="1"/>
     </row>
@@ -13143,7 +13157,7 @@
         <v>584</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E594" s="1"/>
     </row>
@@ -13158,7 +13172,7 @@
         <v>873</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E595" s="1"/>
     </row>
@@ -13173,7 +13187,7 @@
         <v>874</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E596" s="1"/>
     </row>
@@ -13188,7 +13202,7 @@
         <v>875</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E597" s="1"/>
     </row>
@@ -13240,7 +13254,7 @@
         <v>16</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E601" s="1"/>
     </row>
@@ -13255,7 +13269,7 @@
         <v>17</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E602" s="1"/>
     </row>
@@ -13270,7 +13284,7 @@
         <v>20</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E603" s="1"/>
     </row>
@@ -13285,7 +13299,7 @@
         <v>21</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E604" s="1"/>
     </row>
@@ -13300,7 +13314,7 @@
         <v>22</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E605" s="1"/>
     </row>
@@ -13315,7 +13329,7 @@
         <v>586</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E606" s="1"/>
     </row>
@@ -13337,7 +13351,7 @@
         <v>588</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E608" s="1"/>
     </row>
@@ -13352,7 +13366,7 @@
         <v>589</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E609" s="1"/>
     </row>
@@ -13374,7 +13388,7 @@
         <v>590</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E611" s="1"/>
     </row>
@@ -13396,7 +13410,7 @@
         <v>592</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E613" s="1"/>
     </row>
@@ -13411,7 +13425,7 @@
         <v>593</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E614" s="1"/>
     </row>
@@ -13426,7 +13440,7 @@
         <v>594</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E615" s="1"/>
     </row>
@@ -13441,7 +13455,7 @@
         <v>144</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E616" s="1"/>
     </row>
@@ -13463,7 +13477,7 @@
         <v>596</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E618" s="1"/>
     </row>
@@ -13478,7 +13492,7 @@
         <v>71</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E619" s="1"/>
     </row>
@@ -13493,7 +13507,7 @@
         <v>72</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E620" s="1"/>
     </row>
@@ -13515,7 +13529,7 @@
         <v>598</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E622" s="1"/>
     </row>
@@ -13530,7 +13544,7 @@
         <v>599</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E623" s="1"/>
     </row>
@@ -13552,7 +13566,7 @@
         <v>601</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E625" s="1"/>
     </row>
@@ -13567,7 +13581,7 @@
         <v>602</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E626" s="1"/>
     </row>
@@ -13589,7 +13603,7 @@
         <v>604</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E628" s="1"/>
     </row>
@@ -13604,7 +13618,7 @@
         <v>605</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E629" s="1"/>
     </row>
@@ -13623,10 +13637,10 @@
         <v>1</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E631" s="1"/>
     </row>
@@ -13641,7 +13655,7 @@
         <v>607</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E632" s="1"/>
     </row>
@@ -13663,7 +13677,7 @@
         <v>609</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E634" s="1"/>
     </row>
@@ -13678,7 +13692,7 @@
         <v>610</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E635" s="1"/>
     </row>
@@ -13693,7 +13707,7 @@
         <v>611</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E636" s="1"/>
     </row>
@@ -13708,7 +13722,7 @@
         <v>612</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E637" s="1"/>
     </row>
@@ -14508,7 +14522,7 @@
         <v>651</v>
       </c>
       <c r="D693" s="3" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E693" s="1"/>
     </row>
@@ -14523,7 +14537,7 @@
         <v>652</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E694" s="1"/>
     </row>
@@ -14582,7 +14596,7 @@
         <v>902</v>
       </c>
       <c r="D699" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E699" s="1"/>
     </row>
@@ -14752,7 +14766,7 @@
         <v>924</v>
       </c>
       <c r="D713" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E713" s="1"/>
     </row>
@@ -14767,7 +14781,7 @@
         <v>925</v>
       </c>
       <c r="D714" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E714" s="1"/>
     </row>
@@ -14833,7 +14847,7 @@
         <v>933</v>
       </c>
       <c r="D720" s="3" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E720" s="1"/>
     </row>
@@ -14855,7 +14869,7 @@
         <v>935</v>
       </c>
       <c r="D722" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E722" s="1"/>
     </row>
@@ -14870,7 +14884,7 @@
         <v>936</v>
       </c>
       <c r="D723" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E723" s="1"/>
     </row>
@@ -14944,7 +14958,7 @@
         <v>945</v>
       </c>
       <c r="D729" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E729" s="1"/>
     </row>
@@ -15145,7 +15159,7 @@
         <v>970</v>
       </c>
       <c r="D744" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E744" s="1"/>
     </row>
@@ -15160,7 +15174,7 @@
         <v>971</v>
       </c>
       <c r="D745" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E745" s="1"/>
     </row>
@@ -15175,7 +15189,7 @@
         <v>972</v>
       </c>
       <c r="D746" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E746" s="1"/>
     </row>
@@ -15190,7 +15204,7 @@
         <v>973</v>
       </c>
       <c r="D747" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E747" s="1"/>
     </row>
@@ -15481,7 +15495,7 @@
         <v>1011</v>
       </c>
       <c r="D768" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E768" s="1"/>
     </row>
@@ -15541,7 +15555,7 @@
         <v>1018</v>
       </c>
       <c r="D772" s="3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E772" s="1"/>
     </row>
@@ -15601,7 +15615,7 @@
         <v>1023</v>
       </c>
       <c r="D776" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E776" s="1"/>
     </row>
@@ -15616,7 +15630,7 @@
         <v>1024</v>
       </c>
       <c r="D777" s="3" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E777" s="1"/>
     </row>
@@ -15631,7 +15645,7 @@
         <v>1025</v>
       </c>
       <c r="D778" s="3" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E778" s="1"/>
     </row>
@@ -15661,7 +15675,7 @@
         <v>1028</v>
       </c>
       <c r="D780" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E780" s="1"/>
     </row>
@@ -15688,10 +15702,10 @@
         <v>22</v>
       </c>
       <c r="C782" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D782" s="3" t="s">
         <v>1333</v>
-      </c>
-      <c r="D782" s="3" t="s">
-        <v>1334</v>
       </c>
       <c r="E782" s="1"/>
     </row>
@@ -15818,7 +15832,7 @@
         <v>1044</v>
       </c>
       <c r="D791" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E791" s="1"/>
     </row>
